--- a/approach2_exp/job_suggestions/candidate_1.xlsx
+++ b/approach2_exp/job_suggestions/candidate_1.xlsx
@@ -452,13 +452,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,11 +468,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
